--- a/fhir/ig/mfr/StructureDefinition-PrestadorInstitucionalMinsal.xlsx
+++ b/fhir/ig/mfr/StructureDefinition-PrestadorInstitucionalMinsal.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -428,7 +428,7 @@
     <t>Organization.extension</t>
   </si>
   <si>
-    <t>5</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -472,17 +472,14 @@
 </t>
   </si>
   <si>
-    <t>Organization.extension:Pertenencia</t>
-  </si>
-  <si>
-    <t>Pertenencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/Pertenencia}
+    <t>Organization.extension:PertenenciaSNSS</t>
+  </si>
+  <si>
+    <t>PertenenciaSNSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/PertenenciaSNSS}
 </t>
-  </si>
-  <si>
-    <t>Pertenencia al SNSS</t>
   </si>
   <si>
     <t>Es un atributo o características  del establecimiento relacionado con la relación de jurisdicción  establecida con el Sistema  Nacional de Servicios de Salud. Los establecimientos públicos  forman parte de un Servicio de Salud,  por lo tanto se consideran Pertenecientes al Sistema Nacional de Servicios de Salud. Por otro lado, Los establecimientos privados, de las Fuerzas Armadas, de Orden y Seguridad tienen una jurisdicción diferente, por lo tanto serán considerados  No pertenecientes al Sistema Nacional de Servicios de Salud.</t>
@@ -536,20 +533,137 @@
     <t>Procedimiento mediante el cual, una tercera parte diferente e independiente de la parte evaluada emite un documento en el que reconoce que un  establecimiento cumple con los requisitos esperados de calidad. Para los hospitales están los EAR ( vigentes e invitados) y para la APS están los centros de salud familiar ( implementación del modelo de salud famiiar).  No se considera en esta categoría los establecimientos acreditados, por ser un concepto diferente y cuya información se encuentra disponible en la Superintendencia de Salud.</t>
   </si>
   <si>
-    <t>Organization.extension:CaracterizacionPrestador</t>
-  </si>
-  <si>
-    <t>CaracterizacionPrestador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/CaracterizacionPrestador}
+    <t>Organization.extension:TipoUrgencia</t>
+  </si>
+  <si>
+    <t>TipoUrgencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/TipoUrgencia}
 </t>
   </si>
   <si>
-    <t>Caracterización del Prestador</t>
-  </si>
-  <si>
-    <t>Datos de Caracterización del Prestador existente en esta ubicación</t>
+    <t>Tipo Urgencia</t>
+  </si>
+  <si>
+    <t>Organization.extension:TieneServicioUrgencia</t>
+  </si>
+  <si>
+    <t>TieneServicioUrgencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/TieneServicioUrgencia}
+</t>
+  </si>
+  <si>
+    <t>Tiene Servicio Urgencia</t>
+  </si>
+  <si>
+    <t>Organization.extension:NivelAtencion</t>
+  </si>
+  <si>
+    <t>NivelAtencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/NivelAtencion}
+</t>
+  </si>
+  <si>
+    <t>Nivel Atencion</t>
+  </si>
+  <si>
+    <t>Organization.extension:ClasificacionSAPU</t>
+  </si>
+  <si>
+    <t>ClasificacionSAPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/ClasificacionSAPU}
+</t>
+  </si>
+  <si>
+    <t>Clasificacion SAPU</t>
+  </si>
+  <si>
+    <t>Organization.extension:EstadoFuncionamiento</t>
+  </si>
+  <si>
+    <t>EstadoFuncionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/EstadoFuncionamiento}
+</t>
+  </si>
+  <si>
+    <t>Estado Funcionamiento Institución</t>
+  </si>
+  <si>
+    <t>Se refiere a la condición del establecimiento respecto a su funcionalidad administrativa y asistencial de acuerdo a la normativa vigente y en el marco de la seguridad asistencia.</t>
+  </si>
+  <si>
+    <t>Organization.extension:DependenciaAdministrativa</t>
+  </si>
+  <si>
+    <t>DependenciaAdministrativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/DependenciaAdministrativa}
+</t>
+  </si>
+  <si>
+    <t>Dependencia Administrativa</t>
+  </si>
+  <si>
+    <t>Organization.extension:ModalidadAtencion</t>
+  </si>
+  <si>
+    <t>ModalidadAtencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/ModalidadAtencion}
+</t>
+  </si>
+  <si>
+    <t>Modalidad de Atención del Prestador</t>
+  </si>
+  <si>
+    <t>Organization.extension:NivelComplejidadEstablecimiento</t>
+  </si>
+  <si>
+    <t>NivelComplejidadEstablecimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/NivelComplejidadEstablecimiento}
+</t>
+  </si>
+  <si>
+    <t>Nivel Complejidad Establecimiento</t>
+  </si>
+  <si>
+    <t>Organization.extension:AmbitoFuncionamiento</t>
+  </si>
+  <si>
+    <t>AmbitoFuncionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/AmbitoFuncionamiento}
+</t>
+  </si>
+  <si>
+    <t>Ambito Funcionamiento</t>
+  </si>
+  <si>
+    <t>Organization.extension:Dependencia</t>
+  </si>
+  <si>
+    <t>Dependencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/Dependencia}
+</t>
+  </si>
+  <si>
+    <t>Dependencia Jerárquica (SEREMI / Servicio de Salud)</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -861,7 +975,7 @@
     <t>Organization.identifier:vigente.value</t>
   </si>
   <si>
-    <t>Valor del identificador correspondiente al Código Madre Nuevo</t>
+    <t>Valor del identificador correspondiente al Código Vigente</t>
   </si>
   <si>
     <t>Organization.identifier:vigente.period</t>
@@ -900,7 +1014,7 @@
     <t>Organization.identifier:antiguo.value</t>
   </si>
   <si>
-    <t>Valor del identificador, correspondiente al Código Madre</t>
+    <t>Valor del identificador, correspondiente al Código Antiguo</t>
   </si>
   <si>
     <t>Organization.identifier:antiguo.period</t>
@@ -976,7 +1090,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Es la unidad político – administrativa de mayor nivel en que está dividido el país. La división político administrativa que actualmente rige en el país, se originó en 1974 y ha sido objeto de sucesivas modificaciones, la última de las cuales fue la Ley N° 21.033, que creó la Región de Ñuble. Por ello, a partir del 4 de septiembre de 2018, el país está dividido en 16 regiones.</t>
+    <t>Nombre Oficial del Establecimiento</t>
   </si>
   <si>
     <t>Nombre Legal de la Organización</t>
@@ -1020,7 +1134,7 @@
 </t>
   </si>
   <si>
-    <t>Un número de teléfono es una secuencia de dígitos utilizada para identificar una línea telefónica dentro de una Red Telefónica Conmutada (RTC). El número contiene la información necesaria para identificar el punto final de la llamada.</t>
+    <t>Un número de teléfono es una secuencia de dígitos utilizada para identificar una línea telefónica dentro de una Red Telefónica Conmutada (RTC). El número contiene la información necesaria para identificar el punto final de la llamada.</t>
   </si>
   <si>
     <t>Contactos de la organización</t>
@@ -1180,17 +1294,17 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/cl-address}
+    <t xml:space="preserve">Address {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/cl-addressMFR}
 </t>
   </si>
   <si>
-    <t>Tipo de dato para agragar la dirección de un paciente</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Variable dirección</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -1215,48 +1329,13 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>Organization.address.extension:Geolocalizacion</t>
-  </si>
-  <si>
-    <t>Geolocalizacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {geolocation}
-</t>
-  </si>
-  <si>
-    <t>The absolute geographic location</t>
-  </si>
-  <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
-  </si>
-  <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:NombreVia</t>
-  </si>
-  <si>
-    <t>NombreVia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/mfr/StructureDefinition/NombreVia}
-</t>
-  </si>
-  <si>
-    <t>Nombre de la Vía</t>
-  </si>
-  <si>
-    <t>Es la ubicación más específica de la dirección del establecimiento.</t>
-  </si>
-  <si>
     <t>Organization.address.use</t>
   </si>
   <si>
-    <t>Definición del tipo de domicilio home | work | temp | old (requerido)</t>
-  </si>
-  <si>
-    <t>Se especifica el tipo de dirección notificada. Esto debe ser segun los códigos definidos por HL7 FHIR</t>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -1371,12 +1450,18 @@
     <t>Campo para Comuna de residencia</t>
   </si>
   <si>
-    <t>Campo para Comuna de residencia.</t>
+    <t>Campo para Comuna de residencia. Se usa el valueSet de códigos de comunas definidos a nivel naciona.</t>
   </si>
   <si>
     <t>Erewhon</t>
   </si>
   <si>
+    <t>Códigos Comuna, Ministerio del Interior, 2018</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosComunaCL</t>
+  </si>
+  <si>
     <t>Address.city</t>
   </si>
   <si>
@@ -1387,52 +1472,6 @@
   </si>
   <si>
     <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>Organization.address.city.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Organization.address.city.extension</t>
-  </si>
-  <si>
-    <t>Código de Comunas</t>
-  </si>
-  <si>
-    <t>Organization.address.city.extension:comunas</t>
-  </si>
-  <si>
-    <t>comunas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/ComunasCl}
-</t>
-  </si>
-  <si>
-    <t>Códigos para Comunas en Chile</t>
-  </si>
-  <si>
-    <t>Esta extensión que permite codiificar las Comunas en Chile en el campo de Dirección</t>
-  </si>
-  <si>
-    <t>Organization.address.city.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>Organization.address.district</t>
@@ -1454,6 +1493,12 @@
     <t>Madison</t>
   </si>
   <si>
+    <t>Códigos Provincia, Ministerio del Interior, 2018</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosProvinciasCL</t>
+  </si>
+  <si>
     <t>Address.district</t>
   </si>
   <si>
@@ -1461,34 +1506,6 @@
   </si>
   <si>
     <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Organization.address.district.id</t>
-  </si>
-  <si>
-    <t>Organization.address.district.extension</t>
-  </si>
-  <si>
-    <t>Código de Regiones</t>
-  </si>
-  <si>
-    <t>Organization.address.district.extension:provincias</t>
-  </si>
-  <si>
-    <t>provincias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/ProvinciasCl}
-</t>
-  </si>
-  <si>
-    <t>Códigos para Provincias en Chile</t>
-  </si>
-  <si>
-    <t>Esta extensión que permite codificar las Provincias en Chile en el campo de Dirección</t>
-  </si>
-  <si>
-    <t>Organization.address.district.value</t>
   </si>
   <si>
     <t>Organization.address.state</t>
@@ -1504,6 +1521,12 @@
     <t>Campo Región. Se usa el valueSet de códigos de regiones definidos a nivel naciona.</t>
   </si>
   <si>
+    <t>Códigos Regiones, Ministerio del Interior, 2018</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSCodigosRegionesCL</t>
+  </si>
+  <si>
     <t>Address.state</t>
   </si>
   <si>
@@ -1514,31 +1537,6 @@
   </si>
   <si>
     <t>./Region</t>
-  </si>
-  <si>
-    <t>Organization.address.state.id</t>
-  </si>
-  <si>
-    <t>Organization.address.state.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.state.extension:regiones</t>
-  </si>
-  <si>
-    <t>regiones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/RegionesCl}
-</t>
-  </si>
-  <si>
-    <t>Códigos para Regiones en Chile</t>
-  </si>
-  <si>
-    <t>Esta extensión que permite codificar las Regiones en Chile en el campo de Dirección</t>
-  </si>
-  <si>
-    <t>Organization.address.state.value</t>
   </si>
   <si>
     <t>Organization.address.postalCode</t>
@@ -1578,6 +1576,9 @@
     <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/CodPais</t>
+  </si>
+  <si>
     <t>Address.country</t>
   </si>
   <si>
@@ -1588,34 +1589,6 @@
   </si>
   <si>
     <t>./Country</t>
-  </si>
-  <si>
-    <t>Organization.address.country.id</t>
-  </si>
-  <si>
-    <t>Organization.address.country.extension</t>
-  </si>
-  <si>
-    <t>Código de Países</t>
-  </si>
-  <si>
-    <t>Organization.address.country.extension:paises</t>
-  </si>
-  <si>
-    <t>paises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CodigoPaises}
-</t>
-  </si>
-  <si>
-    <t>Codigo de Identificación de países</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises de origen</t>
-  </si>
-  <si>
-    <t>Organization.address.country.value</t>
   </si>
   <si>
     <t>Organization.address.period</t>
@@ -1645,7 +1618,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t>Es un identificador único para el Servicio de Salud y para la SEREMI, independiente que puedan tener coincidencia en el valor.</t>
+    <t>Código madre</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part.</t>
@@ -1707,7 +1680,7 @@
     <t>Organization.partOf.identifier</t>
   </si>
   <si>
-    <t>Identificador de Servicio de Salud y Seremi</t>
+    <t>Logical reference, when literal reference is not known</t>
   </si>
   <si>
     <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
@@ -1728,7 +1701,7 @@
     <t>Organization.partOf.display</t>
   </si>
   <si>
-    <t>Corresponde al nombre de organización de la dependencia que tiene el establecimiento sobre un nivel jerárquico superior. Esta compuesta por los Servicios de Salud y las SEREMI's</t>
+    <t>Corresponde al nombre de organización de la dependencia que tiene el establecimiento sobre un nivel jerárquico superior.</t>
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
@@ -2230,7 +2203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2239,9 +2212,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.2578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="52.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.60546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="30.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2249,7 +2222,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3453,10 +3426,10 @@
         <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3536,13 +3509,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
@@ -3564,13 +3537,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3650,13 +3623,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
@@ -3678,13 +3651,13 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3764,13 +3737,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
@@ -3792,13 +3765,13 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3878,20 +3851,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>88</v>
@@ -3906,13 +3879,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3992,46 +3965,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -4079,7 +4050,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4088,7 +4059,7 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>140</v>
@@ -4097,7 +4068,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -4108,21 +4079,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>89</v>
@@ -4131,21 +4104,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -4181,19 +4152,19 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4202,32 +4173,34 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4239,7 +4212,7 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
@@ -4248,13 +4221,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4305,25 +4278,25 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4334,24 +4307,26 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
@@ -4360,17 +4335,15 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4407,19 +4380,19 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4428,7 +4401,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>140</v>
@@ -4437,7 +4410,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4448,46 +4421,44 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4511,13 +4482,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4535,25 +4506,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4564,46 +4535,44 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4627,13 +4596,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4651,25 +4620,25 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4680,18 +4649,20 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4703,23 +4674,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4731,7 +4698,7 @@
         <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>78</v>
@@ -4767,28 +4734,28 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4796,18 +4763,20 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4819,20 +4788,18 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4845,7 +4812,7 @@
         <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>78</v>
@@ -4881,28 +4848,28 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4910,39 +4877,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4993,28 +4962,28 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5022,44 +4991,46 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -5107,28 +5078,28 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5136,14 +5107,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5152,7 +5121,7 @@
         <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>89</v>
@@ -5164,17 +5133,17 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5211,19 +5180,19 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5232,30 +5201,30 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5278,13 +5247,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5335,7 +5304,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5353,7 +5322,7 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5364,14 +5333,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5393,13 +5362,13 @@
         <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5440,7 +5409,7 @@
         <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
@@ -5449,7 +5418,7 @@
         <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5467,7 +5436,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5478,10 +5447,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5489,7 +5458,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -5507,16 +5476,16 @@
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5526,7 +5495,7 @@
         <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>78</v>
@@ -5541,11 +5510,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5563,7 +5534,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5581,7 +5552,7 @@
         <v>131</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5592,10 +5563,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5618,19 +5589,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5655,13 +5626,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5679,7 +5650,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5694,10 +5665,10 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5708,10 +5679,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5737,16 +5708,16 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5759,7 +5730,7 @@
         <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>78</v>
@@ -5795,7 +5766,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5810,13 +5781,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5824,10 +5795,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5850,16 +5821,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5873,7 +5844,7 @@
         <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>78</v>
@@ -5909,7 +5880,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5924,13 +5895,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5938,10 +5909,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5964,13 +5935,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6021,7 +5992,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6036,13 +6007,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6050,10 +6021,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6076,16 +6047,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6135,7 +6106,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6150,13 +6121,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6164,20 +6135,20 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -6192,17 +6163,17 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6251,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6260,30 +6231,30 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6306,13 +6277,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6363,7 +6334,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6381,7 +6352,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6392,14 +6363,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6421,13 +6392,13 @@
         <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6468,7 +6439,7 @@
         <v>137</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
@@ -6477,7 +6448,7 @@
         <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6495,7 +6466,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6506,10 +6477,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6535,16 +6506,16 @@
         <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6554,7 +6525,7 @@
         <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>78</v>
@@ -6569,11 +6540,11 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6591,7 +6562,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6609,7 +6580,7 @@
         <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6620,10 +6591,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6646,19 +6617,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6683,13 +6654,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6707,7 +6678,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6722,10 +6693,10 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6736,10 +6707,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6765,16 +6736,16 @@
         <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6787,7 +6758,7 @@
         <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>78</v>
@@ -6823,7 +6794,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6838,13 +6809,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6852,10 +6823,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6863,7 +6834,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6878,16 +6849,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6901,7 +6872,7 @@
         <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6937,7 +6908,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6952,13 +6923,13 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6966,10 +6937,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6992,13 +6963,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7049,7 +7020,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7064,13 +7035,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7078,10 +7049,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7104,16 +7075,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7163,7 +7134,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7178,13 +7149,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7192,12 +7163,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7209,35 +7182,31 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7281,39 +7250,39 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>297</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7321,35 +7290,31 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7373,11 +7338,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7395,75 +7362,73 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7499,40 +7464,40 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7540,10 +7505,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7551,34 +7516,34 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7588,7 +7553,7 @@
         <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>78</v>
@@ -7603,13 +7568,11 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7627,13 +7590,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7642,10 +7605,10 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7656,10 +7619,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7673,28 +7636,28 @@
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7719,13 +7682,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7743,28 +7706,28 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7772,10 +7735,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7789,25 +7752,29 @@
         <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7819,7 +7786,7 @@
         <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>78</v>
@@ -7855,7 +7822,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7867,16 +7834,16 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7884,42 +7851,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7933,7 +7900,7 @@
         <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>78</v>
@@ -7957,40 +7924,40 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7998,10 +7965,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8024,13 +7991,13 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8042,7 +8009,7 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>78</v>
@@ -8057,13 +8024,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8081,7 +8048,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8090,19 +8057,19 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8110,10 +8077,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8121,13 +8088,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
@@ -8136,20 +8103,18 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8197,7 +8162,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8212,13 +8177,13 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8226,10 +8191,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8252,24 +8217,26 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="R53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8289,11 +8256,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8311,7 +8280,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8326,24 +8295,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8351,13 +8320,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>78</v>
@@ -8366,18 +8335,20 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8401,13 +8372,11 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8425,13 +8394,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8440,24 +8409,24 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>195</v>
+        <v>340</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8465,13 +8434,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>78</v>
@@ -8480,16 +8449,20 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8537,7 +8510,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8546,19 +8519,19 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8566,10 +8539,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8577,10 +8550,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>89</v>
@@ -8592,19 +8565,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8653,7 +8626,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8662,19 +8635,19 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8682,10 +8655,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8699,7 +8672,7 @@
         <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
@@ -8708,16 +8681,20 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8765,28 +8742,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8794,10 +8771,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8805,10 +8782,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8820,13 +8797,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8865,37 +8842,37 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8906,26 +8883,24 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
@@ -8934,16 +8909,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>233</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8981,19 +8956,19 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9011,7 +8986,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -9022,41 +8997,39 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>393</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9068,7 +9041,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -9083,13 +9056,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9107,28 +9080,28 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>200</v>
+        <v>374</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9136,10 +9109,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9147,7 +9120,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9156,25 +9129,25 @@
         <v>89</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9187,7 +9160,7 @@
         <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>78</v>
@@ -9199,13 +9172,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9223,7 +9196,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9238,13 +9211,13 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9252,10 +9225,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9272,7 +9245,7 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>89</v>
@@ -9281,15 +9254,17 @@
         <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9301,7 +9276,7 @@
         <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>78</v>
@@ -9313,13 +9288,11 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9337,7 +9310,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9352,13 +9325,13 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9366,10 +9339,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9392,20 +9365,18 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9417,7 +9388,7 @@
         <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>78</v>
@@ -9453,7 +9424,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9468,10 +9439,10 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>423</v>
+        <v>230</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>424</v>
+        <v>230</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9482,10 +9453,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9493,13 +9464,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>78</v>
@@ -9508,13 +9479,13 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9529,7 +9500,7 @@
         <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>78</v>
@@ -9565,13 +9536,13 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
@@ -9580,13 +9551,13 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9594,18 +9565,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9617,19 +9588,23 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9641,7 +9616,7 @@
         <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>78</v>
@@ -9677,28 +9652,28 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9706,10 +9681,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9732,13 +9707,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>444</v>
+        <v>228</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9789,7 +9764,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9807,7 +9782,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9818,18 +9793,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9847,12 +9822,14 @@
         <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>232</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9891,7 +9868,9 @@
       <c r="AB67" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC67" s="2"/>
+      <c r="AC67" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9899,7 +9878,7 @@
         <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9917,7 +9896,7 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9928,20 +9907,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>88</v>
@@ -9950,22 +9927,26 @@
         <v>89</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9977,7 +9958,7 @@
         <v>78</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>78</v>
@@ -9989,13 +9970,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10013,28 +9994,28 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>200</v>
+        <v>428</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10042,10 +10023,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10065,18 +10046,20 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10089,7 +10072,7 @@
         <v>78</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>78</v>
@@ -10098,16 +10081,16 @@
         <v>78</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10125,7 +10108,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10137,13 +10120,13 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10154,24 +10137,24 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>78</v>
@@ -10180,18 +10163,20 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10203,7 +10188,7 @@
         <v>78</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>78</v>
@@ -10239,7 +10224,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10254,10 +10239,10 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10268,10 +10253,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10282,25 +10267,25 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10315,7 +10300,7 @@
         <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>78</v>
@@ -10351,28 +10336,28 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>194</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10380,39 +10365,39 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10427,7 +10412,7 @@
         <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>78</v>
@@ -10439,50 +10424,52 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>200</v>
+        <v>464</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10490,20 +10477,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -10515,18 +10500,20 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10539,7 +10526,7 @@
         <v>78</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>78</v>
@@ -10551,13 +10538,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10575,25 +10562,25 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>78</v>
+        <v>478</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10604,14 +10591,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10621,22 +10608,22 @@
         <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10660,16 +10647,16 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10687,7 +10674,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10699,16 +10686,16 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10716,24 +10703,24 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>78</v>
@@ -10742,13 +10729,13 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10763,7 +10750,7 @@
         <v>78</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>78</v>
+        <v>493</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>78</v>
@@ -10799,7 +10786,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10814,13 +10801,13 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10828,10 +10815,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10845,24 +10832,26 @@
         <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10887,13 +10876,11 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>78</v>
+        <v>501</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -10911,7 +10898,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>194</v>
+        <v>502</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10923,16 +10910,16 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10940,10 +10927,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10951,10 +10938,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10963,19 +10950,21 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10987,7 +10976,7 @@
         <v>78</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>78</v>
+        <v>510</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>78</v>
@@ -11011,38 +11000,40 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>200</v>
+        <v>511</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11050,20 +11041,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -11075,19 +11064,21 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>487</v>
+        <v>285</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11135,28 +11126,28 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>200</v>
+        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11164,10 +11155,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11190,13 +11181,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>453</v>
+        <v>227</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>454</v>
+        <v>228</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11220,7 +11211,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>78</v>
@@ -11247,7 +11238,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>456</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11265,7 +11256,7 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11276,21 +11267,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11299,18 +11290,20 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
+        <v>232</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11323,7 +11316,7 @@
         <v>78</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>78</v>
@@ -11347,40 +11340,40 @@
         <v>78</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>496</v>
+        <v>235</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>498</v>
+        <v>230</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>499</v>
+        <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11388,10 +11381,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11399,7 +11392,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>88</v>
@@ -11414,16 +11407,16 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11473,7 +11466,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11482,19 +11475,19 @@
         <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>504</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>505</v>
+        <v>131</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11502,10 +11495,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11525,18 +11518,20 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>443</v>
+        <v>527</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11561,13 +11556,13 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>78</v>
+        <v>530</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11585,7 +11580,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>194</v>
+        <v>532</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11597,13 +11592,13 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11614,10 +11609,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11628,27 +11623,29 @@
         <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11685,35 +11682,37 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC83" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>200</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11724,14 +11723,12 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11749,18 +11746,20 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>512</v>
+        <v>226</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11809,25 +11808,25 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>200</v>
+        <v>543</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -11838,10 +11837,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11852,10 +11851,10 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>78</v>
@@ -11864,16 +11863,20 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>191</v>
+        <v>545</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>453</v>
+        <v>546</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>78</v>
@@ -11921,25 +11924,25 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>456</v>
+        <v>544</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
@@ -11950,10 +11953,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11973,21 +11976,19 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>517</v>
+        <v>227</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>518</v>
+        <v>228</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>519</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>78</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>520</v>
+        <v>78</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>78</v>
@@ -12035,7 +12036,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>521</v>
+        <v>229</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12047,16 +12048,16 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>522</v>
+        <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12064,44 +12065,44 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>524</v>
+        <v>232</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12149,28 +12150,28 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>523</v>
+        <v>235</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>527</v>
+        <v>230</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12178,42 +12179,46 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>78</v>
+        <v>553</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>192</v>
+        <v>554</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12261,25 +12266,25 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>194</v>
+        <v>556</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -12290,24 +12295,24 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>78</v>
@@ -12316,18 +12321,18 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12351,49 +12356,49 @@
         <v>78</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>78</v>
+        <v>561</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>78</v>
+        <v>562</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>200</v>
+        <v>557</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>195</v>
+        <v>563</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
@@ -12404,10 +12409,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12427,21 +12432,21 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>191</v>
+        <v>565</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12489,7 +12494,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12498,16 +12503,16 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>535</v>
+        <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>78</v>
+        <v>568</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>131</v>
+        <v>569</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12518,10 +12523,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12532,30 +12537,30 @@
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>102</v>
+        <v>356</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12579,13 +12584,13 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>540</v>
+        <v>78</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -12603,13 +12608,13 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
@@ -12618,10 +12623,10 @@
         <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>78</v>
+        <v>574</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>131</v>
+        <v>575</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12632,10 +12637,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12643,32 +12648,30 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>544</v>
+        <v>227</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12717,7 +12720,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>547</v>
+        <v>229</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12729,13 +12732,13 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>548</v>
+        <v>230</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12746,42 +12749,42 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>550</v>
+        <v>232</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>551</v>
+        <v>233</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>552</v>
+        <v>210</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12819,37 +12822,37 @@
         <v>78</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>553</v>
+        <v>235</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
@@ -12860,10 +12863,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12874,32 +12877,28 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K94" t="s" s="2">
-        <v>555</v>
+        <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>556</v>
+        <v>369</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12923,13 +12922,11 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -12947,28 +12944,28 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>554</v>
+        <v>374</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>559</v>
+        <v>377</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -12976,10 +12973,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12999,19 +12996,23 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>192</v>
+        <v>580</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13071,16 +13072,16 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13088,44 +13089,46 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>197</v>
+        <v>583</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>198</v>
+        <v>584</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13149,13 +13152,11 @@
         <v>78</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>78</v>
@@ -13173,28 +13174,28 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>195</v>
+        <v>395</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13202,46 +13203,44 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>563</v>
+        <v>78</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>134</v>
+        <v>398</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>564</v>
+        <v>399</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>565</v>
+        <v>400</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13289,25 +13288,25 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>566</v>
+        <v>402</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -13318,10 +13317,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13335,27 +13334,25 @@
         <v>88</v>
       </c>
       <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K98" t="s" s="2">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>568</v>
+        <v>404</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>569</v>
+        <v>405</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>570</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13379,13 +13376,13 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>571</v>
+        <v>78</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>572</v>
+        <v>78</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
@@ -13403,7 +13400,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>567</v>
+        <v>406</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13418,13 +13415,13 @@
         <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>573</v>
+        <v>407</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13432,10 +13429,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13449,7 +13446,7 @@
         <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>78</v>
@@ -13458,17 +13455,17 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13517,7 +13514,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13532,10 +13529,10 @@
         <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
@@ -13546,10 +13543,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13563,7 +13560,7 @@
         <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>78</v>
@@ -13572,17 +13569,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>321</v>
+        <v>595</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13631,7 +13628,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -13646,1040 +13643,20 @@
         <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>584</v>
+        <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>585</v>
+        <v>230</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y103" s="2"/>
-      <c r="Z103" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y105" s="2"/>
-      <c r="Z105" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN109" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN109">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14689,7 +13666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI108">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
